--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8CE95B-6409-477C-AFF0-2B9212BE10EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE4D57-2ABA-4715-9F63-8B44769D074D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3444" windowWidth="17280" windowHeight="8964" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -54,27 +51,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>HW4</t>
-  </si>
-  <si>
-    <t>HW3</t>
-  </si>
-  <si>
-    <t>2 Shanbe</t>
-  </si>
-  <si>
-    <t>3 Shanbe</t>
-  </si>
-  <si>
-    <t>4 Shanbe</t>
-  </si>
-  <si>
-    <t>5 Shanbe</t>
-  </si>
-  <si>
     <t>99522032 كميجاني اميرمحمد</t>
   </si>
   <si>
@@ -103,13 +79,28 @@
   </si>
   <si>
     <t>99522158 ميرزائي محمدحسين</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7</t>
+  </si>
+  <si>
+    <t>توضیحات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +150,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -358,10 +368,90 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -375,16 +465,101 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
@@ -399,9 +574,18 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -410,209 +594,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -623,9 +604,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -635,23 +614,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,13 +633,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,12 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -696,12 +663,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -709,73 +670,137 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1092,283 +1117,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD848E-E297-4097-8BEE-9ABC561FDC7A}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" style="34" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="18" width="12.88671875" customWidth="1"/>
+    <col min="5" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" customWidth="1"/>
+    <col min="16" max="17" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:16" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="40" t="s">
+    <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="M2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="13">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>10</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="27">
         <v>8</v>
       </c>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="47" t="s">
+      <c r="C11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="27">
+        <v>9</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="42" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="45"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-    </row>
-    <row r="11" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="45"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
+    </row>
+    <row r="14" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1379,9 +1474,8 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1392,9 +1486,8 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1405,9 +1498,8 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1418,9 +1510,8 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1431,9 +1522,8 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1444,25 +1534,32 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="23">
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE4D57-2ABA-4715-9F63-8B44769D074D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81679E4-01F9-474B-9839-23FA22374B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>توضیحات</t>
+  </si>
+  <si>
+    <t>امتیازی برای خوشگلی اما رندوم نداشت</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1222,9 @@
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="56"/>
+      <c r="M4" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="N4" s="57"/>
       <c r="O4" s="58"/>
     </row>
@@ -1232,9 +1237,15 @@
         <v>7</v>
       </c>
       <c r="D5" s="45"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="15">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>100</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5</v>
+      </c>
       <c r="H5" s="30"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81679E4-01F9-474B-9839-23FA22374B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040E639-C99B-40C0-B3DA-9C6E969F0B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="36"/>
@@ -1266,9 +1266,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="45"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="15">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>100</v>
+      </c>
+      <c r="G6" s="17">
+        <v>12</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="36"/>
       <c r="J6" s="39"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040E639-C99B-40C0-B3DA-9C6E969F0B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD2606-2560-4C6C-B3EA-EEA9FBC00AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1295,9 +1295,15 @@
         <v>9</v>
       </c>
       <c r="D7" s="45"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="15">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>100</v>
+      </c>
+      <c r="G7" s="17">
+        <v>10</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="36"/>
       <c r="J7" s="39"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD2606-2560-4C6C-B3EA-EEA9FBC00AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FA653-3EC3-40EE-B735-638DDB6479D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>امتیازی برای خوشگلی اما رندوم نداشت</t>
+  </si>
+  <si>
+    <t>امتیازی برای خوشگلی قابلیت حل اتوماتیک و نیو کردن</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1253,9 +1256,11 @@
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="61"/>
+      <c r="M5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
@@ -1282,9 +1287,11 @@
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
+      <c r="M6" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
@@ -1311,9 +1318,11 @@
       <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
+      <c r="M7" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1324,9 +1333,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="15">
+        <v>100</v>
+      </c>
+      <c r="F8" s="16">
+        <v>100</v>
+      </c>
+      <c r="G8" s="17">
+        <v>10</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="36"/>
       <c r="J8" s="39"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FA653-3EC3-40EE-B735-638DDB6479D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F271230-42F8-496F-B92A-4E11F2169634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -96,17 +96,17 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>امتیازی برای خوشگلی اما رندوم نداشت</t>
-  </si>
-  <si>
-    <t>امتیازی برای خوشگلی قابلیت حل اتوماتیک و نیو کردن</t>
+    <t>5.3:2 for solve and new</t>
+  </si>
+  <si>
+    <t>5.2: -2 for bug in menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -620,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -779,34 +785,31 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1129,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1225,11 +1228,9 @@
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -1256,11 +1257,9 @@
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="58"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
@@ -1287,11 +1286,11 @@
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
+      <c r="M6" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
@@ -1318,11 +1317,9 @@
       <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1349,7 +1346,7 @@
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="60"/>
       <c r="O8" s="61"/>
     </row>
@@ -1372,7 +1369,7 @@
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="59"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="60"/>
       <c r="O9" s="61"/>
     </row>
@@ -1385,9 +1382,15 @@
         <v>12</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="15">
+        <v>100</v>
+      </c>
+      <c r="F10" s="16">
+        <v>98</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="36"/>
       <c r="J10" s="39"/>
@@ -1395,7 +1398,9 @@
       <c r="L10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="62"/>
+      <c r="M10" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="N10" s="60"/>
       <c r="O10" s="61"/>
     </row>
@@ -1418,7 +1423,7 @@
       <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="60"/>
       <c r="O11" s="61"/>
     </row>
@@ -1441,7 +1446,7 @@
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="60"/>
       <c r="O12" s="61"/>
     </row>
@@ -1461,9 +1466,9 @@
       <c r="I13" s="40"/>
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="65"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F271230-42F8-496F-B92A-4E11F2169634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6FDD80-CD22-43CE-9127-6C1B6EA62F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1359,9 +1359,15 @@
         <v>11</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="15">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16">
+        <v>100</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
       <c r="H9" s="30"/>
       <c r="I9" s="36"/>
       <c r="J9" s="39"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6FDD80-CD22-43CE-9127-6C1B6EA62F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB996E5-4A3A-4239-BE55-7D7CA7E1D2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>5.2: -2 for bug in menu</t>
+  </si>
+  <si>
+    <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work</t>
+  </si>
+  <si>
+    <t>5.2: rule is incorrect but have this message</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1135,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1419,9 +1425,15 @@
         <v>13</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="36"/>
       <c r="J11" s="39"/>
@@ -1442,9 +1454,15 @@
         <v>14</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="15">
+        <v>30</v>
+      </c>
+      <c r="F12" s="16">
+        <v>60</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
       <c r="H12" s="30"/>
       <c r="I12" s="36"/>
       <c r="J12" s="39"/>
@@ -1452,7 +1470,9 @@
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="56"/>
+      <c r="M12" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="N12" s="60"/>
       <c r="O12" s="61"/>
     </row>
@@ -1465,14 +1485,22 @@
         <v>15</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="E13" s="18">
+        <v>100</v>
+      </c>
+      <c r="F13" s="19">
+        <v>85</v>
+      </c>
+      <c r="G13" s="20">
+        <v>10</v>
+      </c>
       <c r="H13" s="31"/>
       <c r="I13" s="40"/>
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
-      <c r="M13" s="62"/>
+      <c r="M13" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="N13" s="63"/>
       <c r="O13" s="64"/>
     </row>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB996E5-4A3A-4239-BE55-7D7CA7E1D2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE5224-9AA8-4E90-8F95-063EE465C654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>5.2: rule is incorrect but have this message</t>
+  </si>
+  <si>
+    <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data</t>
   </si>
 </sst>
 </file>
@@ -754,11 +757,49 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,51 +814,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD848E-E297-4097-8BEE-9ABC561FDC7A}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1154,24 +1157,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="M2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1205,19 +1208,19 @@
       <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="13">
         <v>100</v>
       </c>
@@ -1227,26 +1230,30 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29">
+        <v>80</v>
+      </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="15">
         <v>100</v>
       </c>
@@ -1263,19 +1270,19 @@
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="15">
         <v>100</v>
       </c>
@@ -1292,21 +1299,21 @@
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="59"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="15">
         <v>100</v>
       </c>
@@ -1323,19 +1330,19 @@
       <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="15">
         <v>100</v>
       </c>
@@ -1352,19 +1359,19 @@
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="15">
         <v>100</v>
       </c>
@@ -1381,19 +1388,19 @@
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="15">
         <v>100</v>
       </c>
@@ -1410,21 +1417,21 @@
       <c r="L10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="27">
         <v>8</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="15">
         <v>0</v>
       </c>
@@ -1441,19 +1448,19 @@
       <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="27">
         <v>9</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="15">
         <v>30</v>
       </c>
@@ -1470,21 +1477,21 @@
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27">
         <v>10</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="18">
         <v>100</v>
       </c>
@@ -1498,11 +1505,11 @@
       <c r="I13" s="40"/>
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
-      <c r="M13" s="62" t="s">
+      <c r="M13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -1614,6 +1621,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M2:O3"/>
@@ -1622,21 +1644,6 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE5224-9AA8-4E90-8F95-063EE465C654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FFD47-6888-4069-8AB8-0AEFB9554676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -108,7 +108,10 @@
     <t>5.2: rule is incorrect but have this message</t>
   </si>
   <si>
-    <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data</t>
+    <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data,not search option in admin panel</t>
+  </si>
+  <si>
+    <t>6:bug in chance,</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34"/>
@@ -1263,14 +1266,18 @@
       <c r="G5" s="17">
         <v>10</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="30">
+        <v>97</v>
+      </c>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
       <c r="K5" s="38"/>
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="55"/>
+      <c r="M5" s="55" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="56"/>
       <c r="O5" s="57"/>
     </row>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FFD47-6888-4069-8AB8-0AEFB9554676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9824A-8B11-4FA0-9413-2DFEE394F282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>5.3:2 for solve and new</t>
-  </si>
-  <si>
     <t>5.2: -2 for bug in menu</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>6:bug in chance,</t>
+  </si>
+  <si>
+    <t>5.3:2 for solve and new 6:bug in select user,MeliID not work</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="57"/>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="57"/>
@@ -1299,7 +1299,9 @@
       <c r="G6" s="17">
         <v>12</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="30">
+        <v>83</v>
+      </c>
       <c r="I6" s="36"/>
       <c r="J6" s="39"/>
       <c r="K6" s="38"/>
@@ -1307,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N6" s="56"/>
       <c r="O6" s="57"/>
@@ -1425,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45"/>
@@ -1485,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45"/>
@@ -1513,7 +1515,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
       <c r="M13" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="48"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9824A-8B11-4FA0-9413-2DFEE394F282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B74E3E-434C-4488-8A9E-E48394A433D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1332,9 @@
       <c r="G7" s="17">
         <v>10</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="30">
+        <v>100</v>
+      </c>
       <c r="I7" s="36"/>
       <c r="J7" s="39"/>
       <c r="K7" s="38"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B74E3E-434C-4488-8A9E-E48394A433D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B01A6-F0E6-468F-B1D5-CF6B70F04FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>5.3:2 for solve and new 6:bug in select user,MeliID not work</t>
+  </si>
+  <si>
+    <t>6:expction in chance,chance not work,MeliID not work,</t>
+  </si>
+  <si>
+    <t>100 90per(90)</t>
+  </si>
+  <si>
+    <t>82 70Per(57.5)</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD848E-E297-4097-8BEE-9ABC561FDC7A}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1357,20 +1366,24 @@
       <c r="E8" s="15">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
-        <v>100</v>
+      <c r="F8" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="36"/>
       <c r="J8" s="39"/>
       <c r="K8" s="38"/>
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45"/>
     </row>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B01A6-F0E6-468F-B1D5-CF6B70F04FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD490E-3614-431E-9977-EE712AD750F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>82 70Per(57.5)</t>
+  </si>
+  <si>
+    <t>WPF</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1405,14 +1408,18 @@
       <c r="G9" s="17">
         <v>10</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="30">
+        <v>180</v>
+      </c>
       <c r="I9" s="36"/>
       <c r="J9" s="39"/>
       <c r="K9" s="38"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45"/>
     </row>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD490E-3614-431E-9977-EE712AD750F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901ECCB8-6902-468D-B5F9-C586B27CEB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>5.2: -2 for bug in menu</t>
-  </si>
-  <si>
     <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>WPF</t>
+  </si>
+  <si>
+    <t>5.2: -2 for bug in menu 6:customer panel not work, showcustomer not complete</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="57"/>
@@ -1288,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="57"/>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="56"/>
       <c r="O6" s="57"/>
@@ -1370,13 +1370,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="39"/>
@@ -1385,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45"/>
@@ -1418,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45"/>
@@ -1441,7 +1441,9 @@
       <c r="G10" s="17">
         <v>0</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="30">
+        <v>85</v>
+      </c>
       <c r="I10" s="36"/>
       <c r="J10" s="39"/>
       <c r="K10" s="38"/>
@@ -1449,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45"/>
@@ -1509,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45"/>
@@ -1537,7 +1539,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
       <c r="M13" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="48"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901ECCB8-6902-468D-B5F9-C586B27CEB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA38362-FE7D-499F-9425-EAFD53E12F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>5.2: -2 for bug in menu 6:customer panel not work, showcustomer not complete</t>
+  </si>
+  <si>
+    <t>6:file bug,bug in add and remove product,search and changepass not consist,SID and MeliID false,chance not consist,(total degree just for menu)</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="30">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="39"/>
@@ -1474,14 +1477,18 @@
       <c r="G11" s="17">
         <v>0</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>15</v>
+      </c>
       <c r="I11" s="36"/>
       <c r="J11" s="39"/>
       <c r="K11" s="38"/>
       <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45"/>
     </row>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA38362-FE7D-499F-9425-EAFD53E12F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13527DD0-46AF-4C31-AA70-A5AD0351E448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work</t>
-  </si>
-  <si>
     <t>5.2: rule is incorrect but have this message</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>6:file bug,bug in add and remove product,search and changepass not consist,SID and MeliID false,chance not consist,(total degree just for menu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception </t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="57"/>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="57"/>
@@ -1324,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="56"/>
       <c r="O6" s="57"/>
@@ -1373,13 +1373,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="39"/>
@@ -1388,7 +1388,7 @@
         <v>16</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45"/>
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45"/>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45"/>
@@ -1510,7 +1510,9 @@
       <c r="G12" s="17">
         <v>0</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="30">
+        <v>40</v>
+      </c>
       <c r="I12" s="36"/>
       <c r="J12" s="39"/>
       <c r="K12" s="38"/>
@@ -1518,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45"/>
@@ -1546,7 +1548,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
       <c r="M13" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="48"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13527DD0-46AF-4C31-AA70-A5AD0351E448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D6D5C-2F0D-404E-9324-2FDD62711A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>5.2: rule is incorrect but have this message</t>
-  </si>
-  <si>
     <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data,not search option in admin panel</t>
   </si>
   <si>
@@ -126,7 +123,10 @@
     <t>6:file bug,bug in add and remove product,search and changepass not consist,SID and MeliID false,chance not consist,(total degree just for menu)</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception </t>
+    <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception (total degree for menu and check email)</t>
+  </si>
+  <si>
+    <t>5.2: rule is incorrect but have this message 6:file address bug,</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="57"/>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="57"/>
@@ -1324,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="56"/>
       <c r="O6" s="57"/>
@@ -1373,13 +1373,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="39"/>
@@ -1388,7 +1388,7 @@
         <v>16</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45"/>
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45"/>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45"/>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45"/>
@@ -1543,12 +1543,14 @@
       <c r="G13" s="20">
         <v>10</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="31">
+        <v>97</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="41"/>
       <c r="K13" s="42"/>
       <c r="M13" s="46" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="48"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D6D5C-2F0D-404E-9324-2FDD62711A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0ED47-21A6-4DAA-927B-151BF5CA8CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
+    <workbookView xWindow="-7800" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>82 70Per(57.5)</t>
   </si>
   <si>
-    <t>WPF</t>
-  </si>
-  <si>
     <t>5.2: -2 for bug in menu 6:customer panel not work, showcustomer not complete</t>
   </si>
   <si>
@@ -126,7 +123,10 @@
     <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception (total degree for menu and check email)</t>
   </si>
   <si>
-    <t>5.2: rule is incorrect but have this message 6:file address bug,</t>
+    <t>6:WPF 7.1:unit test</t>
+  </si>
+  <si>
+    <t>5.2: rule is incorrect but have this message 6:file address bug 7.1:not implict and explict for operator and not line in main method</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -759,7 +759,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1155,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD848E-E297-4097-8BEE-9ABC561FDC7A}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1175,24 +1174,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="M2" s="49" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1226,19 +1225,19 @@
       <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="13">
         <v>100</v>
       </c>
@@ -1251,27 +1250,31 @@
       <c r="H4" s="29">
         <v>75</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="33">
+        <v>100</v>
+      </c>
+      <c r="J4" s="34">
+        <v>100</v>
+      </c>
       <c r="K4" s="35"/>
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="15">
         <v>100</v>
       </c>
@@ -1284,27 +1287,31 @@
       <c r="H5" s="30">
         <v>97</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="36">
+        <v>100</v>
+      </c>
+      <c r="J5" s="38">
+        <v>100</v>
+      </c>
+      <c r="K5" s="37"/>
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="15">
         <v>100</v>
       </c>
@@ -1317,27 +1324,31 @@
       <c r="H6" s="30">
         <v>83</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38"/>
+      <c r="I6" s="36">
+        <v>100</v>
+      </c>
+      <c r="J6" s="38">
+        <v>100</v>
+      </c>
+      <c r="K6" s="37"/>
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="15">
         <v>100</v>
       </c>
@@ -1350,25 +1361,31 @@
       <c r="H7" s="30">
         <v>100</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="38"/>
+      <c r="I7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
       <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="15">
         <v>100</v>
       </c>
@@ -1381,27 +1398,31 @@
       <c r="H8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="36">
+        <v>100</v>
+      </c>
+      <c r="J8" s="38">
+        <v>100</v>
+      </c>
+      <c r="K8" s="37"/>
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="15">
         <v>100</v>
       </c>
@@ -1414,27 +1435,31 @@
       <c r="H9" s="30">
         <v>185</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="36">
+        <v>120</v>
+      </c>
+      <c r="J9" s="38">
+        <v>100</v>
+      </c>
+      <c r="K9" s="37"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="M9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="15">
         <v>100</v>
       </c>
@@ -1447,27 +1472,31 @@
       <c r="H10" s="30">
         <v>85</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="38">
+        <v>100</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="M10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="27">
         <v>8</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="15">
         <v>0</v>
       </c>
@@ -1480,27 +1509,33 @@
       <c r="H11" s="30">
         <v>15</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>15</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
       <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
+      <c r="M11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="27">
         <v>9</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="15">
         <v>30</v>
       </c>
@@ -1513,27 +1548,31 @@
       <c r="H12" s="30">
         <v>40</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <v>100</v>
+      </c>
+      <c r="K12" s="37"/>
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
+      <c r="M12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27">
         <v>10</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="18">
         <v>100</v>
       </c>
@@ -1546,14 +1585,18 @@
       <c r="H13" s="31">
         <v>97</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="M13" s="46" t="s">
+      <c r="I13" s="39">
+        <v>65</v>
+      </c>
+      <c r="J13" s="40">
+        <v>100</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="M13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0ED47-21A6-4DAA-927B-151BF5CA8CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025437D-6DE8-4181-A794-323995C4DBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7800" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -96,44 +96,47 @@
     <t>توضیحات</t>
   </si>
   <si>
-    <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data,not search option in admin panel</t>
-  </si>
-  <si>
-    <t>6:bug in chance,</t>
-  </si>
-  <si>
     <t>5.3:2 for solve and new 6:bug in select user,MeliID not work</t>
   </si>
   <si>
-    <t>6:expction in chance,chance not work,MeliID not work,</t>
-  </si>
-  <si>
     <t>100 90per(90)</t>
   </si>
   <si>
     <t>82 70Per(57.5)</t>
   </si>
   <si>
-    <t>5.2: -2 for bug in menu 6:customer panel not work, showcustomer not complete</t>
-  </si>
-  <si>
     <t>6:file bug,bug in add and remove product,search and changepass not consist,SID and MeliID false,chance not consist,(total degree just for menu)</t>
   </si>
   <si>
-    <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception (total degree for menu and check email)</t>
-  </si>
-  <si>
     <t>6:WPF 7.1:unit test</t>
   </si>
   <si>
     <t>5.2: rule is incorrect but have this message 6:file address bug 7.1:not implict and explict for operator and not line in main method</t>
+  </si>
+  <si>
+    <t>6: not good menu,MeliID not work,menu in admin option not work good, bug in file data,not search option in admin panel 7.3:Q1 repeat,Q3,Q4,Q6</t>
+  </si>
+  <si>
+    <t>6:bug in chance 7.3:Q6</t>
+  </si>
+  <si>
+    <t>7.3=5+5(Code+Anwser)</t>
+  </si>
+  <si>
+    <t>6:expction in chance,chance not work,MeliID not work 7.3:Q10</t>
+  </si>
+  <si>
+    <t>5.1: not exist overwrite and vircual and program trminate every input, not good output. 5.2: add func don’t work 6:file address bug,menu is so bad, have exception in admin panel,changepass not work,in user panel exception (total degree for menu and check email)  7.3:Q10</t>
+  </si>
+  <si>
+    <t>5.2: -2 for bug in menu 6:customer panel not work, showcustomer not complete  7.3:Q6,Q10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +199,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -247,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -649,11 +657,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -838,6 +857,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD848E-E297-4097-8BEE-9ABC561FDC7A}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1197,8 @@
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" customWidth="1"/>
     <col min="15" max="15" width="24.109375" customWidth="1"/>
-    <col min="16" max="17" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1256,12 +1285,14 @@
       <c r="J4" s="34">
         <v>100</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="35">
+        <v>82</v>
+      </c>
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N4" s="55"/>
       <c r="O4" s="56"/>
@@ -1293,12 +1324,14 @@
       <c r="J5" s="38">
         <v>100</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="37">
+        <v>95</v>
+      </c>
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N5" s="55"/>
       <c r="O5" s="56"/>
@@ -1330,12 +1363,14 @@
       <c r="J6" s="38">
         <v>100</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="37">
+        <v>100</v>
+      </c>
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="56"/>
@@ -1390,13 +1425,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" s="36">
         <v>100</v>
@@ -1404,12 +1439,14 @@
       <c r="J8" s="38">
         <v>100</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="37">
+        <v>90</v>
+      </c>
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N8" s="43"/>
       <c r="O8" s="44"/>
@@ -1441,12 +1478,14 @@
       <c r="J9" s="38">
         <v>100</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="37">
+        <v>100</v>
+      </c>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="44"/>
@@ -1478,12 +1517,14 @@
       <c r="J10" s="38">
         <v>100</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="37">
+        <v>90</v>
+      </c>
       <c r="L10" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N10" s="43"/>
       <c r="O10" s="44"/>
@@ -1522,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="44"/>
@@ -1554,12 +1595,14 @@
       <c r="J12" s="38">
         <v>100</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="37">
+        <v>95</v>
+      </c>
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N12" s="43"/>
       <c r="O12" s="44"/>
@@ -1591,14 +1634,16 @@
       <c r="J13" s="40">
         <v>100</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="41">
+        <v>100</v>
+      </c>
       <c r="M13" s="45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N13" s="46"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -1610,7 +1655,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="22"/>
@@ -1621,8 +1666,13 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M15" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+    </row>
+    <row r="16" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1707,7 +1757,8 @@
       <c r="K22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025437D-6DE8-4181-A794-323995C4DBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E04D0-4DA9-42B7-987D-F31EEC532E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -793,49 +793,20 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,20 +821,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1203,24 +1203,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="M2" s="48" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="M2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1254,19 +1254,19 @@
       <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="13">
         <v>100</v>
       </c>
@@ -1291,21 +1291,21 @@
       <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="15">
         <v>100</v>
       </c>
@@ -1330,21 +1330,21 @@
       <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="15">
         <v>100</v>
       </c>
@@ -1369,21 +1369,21 @@
       <c r="L6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="15">
         <v>100</v>
       </c>
@@ -1408,19 +1408,19 @@
       <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="15">
         <v>100</v>
       </c>
@@ -1445,21 +1445,21 @@
       <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="15">
         <v>100</v>
       </c>
@@ -1484,21 +1484,21 @@
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="15">
         <v>100</v>
       </c>
@@ -1523,21 +1523,21 @@
       <c r="L10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="27">
         <v>8</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="15">
         <v>0</v>
       </c>
@@ -1562,21 +1562,21 @@
       <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="27">
         <v>9</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="15">
         <v>30</v>
       </c>
@@ -1601,26 +1601,26 @@
       <c r="L12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27">
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="18">
         <v>100</v>
       </c>
       <c r="F13" s="19">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G13" s="20">
         <v>10</v>
@@ -1637,11 +1637,11 @@
       <c r="K13" s="41">
         <v>100</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
@@ -1666,11 +1666,11 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="65"/>
-      <c r="O15" s="66"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="23.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1758,6 +1758,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M2:O3"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -1769,19 +1777,11 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M2:O3"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Degrees.xlsx
+++ b/Degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hessam-PC\Desktop\Tamrin AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E04D0-4DA9-42B7-987D-F31EEC532E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E084B041-B5A5-46A4-8A30-7BC1B0455542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A019F027-8123-4CDF-BE62-E60F7E5B0D6F}"/>
   </bookViews>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.3"/>
@@ -1629,7 +1629,7 @@
         <v>97</v>
       </c>
       <c r="I13" s="39">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J13" s="40">
         <v>100</v>
